--- a/src/test/resources/techfirm/template.xlsx
+++ b/src/test/resources/techfirm/template.xlsx
@@ -12,6 +12,7 @@
     <sheet name="v3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +47,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="H14")</t>
+jx:area(lastCell="I14")</t>
         </r>
       </text>
     </comment>
@@ -70,7 +71,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="achatDeMateriel.produits" var="it" lastCell="H13")</t>
+jx:each(items="achatDeMateriel.produits" var="it" lastCell="I13")</t>
         </r>
       </text>
     </comment>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>TechFirm</t>
   </si>
@@ -252,13 +253,20 @@
   </si>
   <si>
     <t>Num commande: ${achatDeMateriel.numCommande}</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$fr.-100C]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;fr.&quot;\ #,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -279,8 +287,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +320,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -411,16 +446,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +772,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875"/>
+    <col min="2" max="2" width="16"/>
+    <col min="3" max="6" width="10.875"/>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="8" width="13.25"/>
+    <col min="9" max="1025" width="10.875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="17" t="e">
+        <f>G13*H13</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="18" t="e">
+        <f>SUM(I13)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,12 +964,12 @@
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
@@ -800,149 +978,32 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="13">
-        <f>SUM(G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.875"/>
-    <col min="2" max="2" width="16"/>
-    <col min="3" max="6" width="10.875"/>
-    <col min="7" max="7" width="13.375"/>
-    <col min="8" max="8" width="13.25"/>
-    <col min="9" max="1025" width="10.875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -964,7 +1025,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,23 +1075,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1039,32 +1100,32 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
